--- a/calcDamageFormula.xlsx
+++ b/calcDamageFormula.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dale\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dale\Documents\NetBeansProjects\TalesOfArterrav2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -500,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:L10"/>
+  <dimension ref="C1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="D2:L5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -681,86 +681,86 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D9">
+      <c r="D7">
         <f ca="1">(RAND()*D5)+D6+1</f>
-        <v>8.311245391139547</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ref="E9:L9" ca="1" si="1">(RAND()*E5)+E6+1</f>
-        <v>2.7380980531534691</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.206921409283785</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.1740826500072696</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.525617810945178</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.0395041159518703</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.1369563496349668</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.0968700175992661</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.4385283892317382</v>
+        <v>4.2145677871808518</v>
+      </c>
+      <c r="E7">
+        <f ca="1">(RAND()*E5)+E6+1</f>
+        <v>4.3001722438957817</v>
+      </c>
+      <c r="F7">
+        <f ca="1">(RAND()*F5)+F6+1</f>
+        <v>5.3147681150959585</v>
+      </c>
+      <c r="G7">
+        <f ca="1">(RAND()*G5)+G6+1</f>
+        <v>5.7909169919429822</v>
+      </c>
+      <c r="H7">
+        <f ca="1">(RAND()*H5)+H6+1</f>
+        <v>7.5865408750770564</v>
+      </c>
+      <c r="I7">
+        <f ca="1">(RAND()*I5)+I6+1</f>
+        <v>6.7167693899768537</v>
+      </c>
+      <c r="J7">
+        <f ca="1">(RAND()*J5)+J6+1</f>
+        <v>3.9135304075856432</v>
+      </c>
+      <c r="K7">
+        <f ca="1">(RAND()*K5)+K6+1</f>
+        <v>1.1754748111851576</v>
+      </c>
+      <c r="L7">
+        <f ca="1">(RAND()*L5)+L6+1</f>
+        <v>16.516989561121818</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C10" t="s">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D10">
-        <f ca="1">INT(D9*D2)+D4</f>
-        <v>49</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ref="E10:L10" ca="1" si="2">INT(E9*E2)+E4</f>
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="2"/>
+      <c r="D8">
+        <f ca="1">INT(D7*D2)+D4</f>
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <f ca="1">INT(E7*E2)+E4</f>
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <f ca="1">INT(F7*F2)+F4</f>
+        <v>112</v>
+      </c>
+      <c r="G8">
+        <f ca="1">INT(G7*G2)+G4</f>
+        <v>63</v>
+      </c>
+      <c r="H8">
+        <f ca="1">INT(H7*H2)+H4</f>
+        <v>81</v>
+      </c>
+      <c r="I8">
+        <f ca="1">INT(I7*I2)+I4</f>
         <v>67</v>
       </c>
-      <c r="H10">
-        <f t="shared" ca="1" si="2"/>
-        <v>111</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ca="1" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ca="1" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="K10">
-        <f t="shared" ca="1" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="L10">
-        <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+      <c r="J8">
+        <f ca="1">INT(J7*J2)+J4</f>
+        <v>59</v>
+      </c>
+      <c r="K8">
+        <f ca="1">INT(K7*K2)+K4</f>
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <f ca="1">INT(L7*L2)+L4</f>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/calcDamageFormula.xlsx
+++ b/calcDamageFormula.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Character Level</t>
   </si>
@@ -45,14 +45,67 @@
   </si>
   <si>
     <t>CHA modifier</t>
+  </si>
+  <si>
+    <t>Valid Input</t>
+  </si>
+  <si>
+    <t>Invalid Input</t>
+  </si>
+  <si>
+    <t>Boundaries</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Character level 0</t>
+  </si>
+  <si>
+    <t>Charisma &lt; 10</t>
+  </si>
+  <si>
+    <t>Low Level</t>
+  </si>
+  <si>
+    <t>High Level</t>
+  </si>
+  <si>
+    <t>Low Charisma</t>
+  </si>
+  <si>
+    <t>High Charisma</t>
+  </si>
+  <si>
+    <t>Low Base Damage</t>
+  </si>
+  <si>
+    <t>High Base Damage</t>
+  </si>
+  <si>
+    <t>Low Damage per Level</t>
+  </si>
+  <si>
+    <t>High Damage per Level</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -191,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -219,6 +272,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,270 +560,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:L8"/>
+  <dimension ref="B4:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="14.796875" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" customWidth="1"/>
+    <col min="5" max="5" width="8.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
+    <row r="4" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="2:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G5" s="3">
         <v>20</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H5" s="3">
         <v>10</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I5" s="3">
         <v>10</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J5" s="3">
         <v>10</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K5" s="3">
         <v>10</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L5" s="3">
         <v>10</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M5" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="3:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C3" t="s">
+    <row r="6" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="C6">
         <v>16</v>
       </c>
-      <c r="E3" s="5">
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
         <v>11</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G6" s="2">
         <v>11</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H6" s="2">
         <v>11</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I6" s="2">
         <v>22</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J6" s="2">
         <v>11</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K6" s="2">
         <v>11</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L6" s="2">
         <v>11</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M6" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="3:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C4" t="s">
+    <row r="7" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
         <v>20</v>
       </c>
-      <c r="K4" s="2">
-        <v>6</v>
-      </c>
-      <c r="L4" s="6">
+      <c r="L7" s="2">
+        <v>6</v>
+      </c>
+      <c r="M7" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" t="s">
+    <row r="8" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8">
-        <v>6</v>
-      </c>
-      <c r="G5" s="8">
-        <v>6</v>
-      </c>
-      <c r="H5" s="8">
-        <v>6</v>
-      </c>
-      <c r="I5" s="8">
-        <v>6</v>
-      </c>
-      <c r="J5" s="8">
-        <v>6</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7">
+        <v>6</v>
+      </c>
+      <c r="G8" s="8">
+        <v>6</v>
+      </c>
+      <c r="H8" s="8">
+        <v>6</v>
+      </c>
+      <c r="I8" s="8">
+        <v>6</v>
+      </c>
+      <c r="J8" s="8">
+        <v>6</v>
+      </c>
+      <c r="K8" s="8">
+        <v>6</v>
+      </c>
+      <c r="L8" s="8">
         <v>3</v>
       </c>
-      <c r="L5" s="9">
+      <c r="M8" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <f>INT((D3-10)/2)</f>
+    <row r="9" spans="2:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f>INT((C6-10)/2)</f>
         <v>3</v>
       </c>
-      <c r="E6">
-        <f t="shared" ref="E6:L6" si="0">INT((E3-10)/2)</f>
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="D9">
+        <f t="shared" ref="D9:E9" si="0">INT((D6-10)/2)</f>
+        <v>3</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:M9" si="1">INT((F6-10)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C7" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="D7">
-        <f ca="1">(RAND()*D5)+D6+1</f>
-        <v>4.2145677871808518</v>
-      </c>
-      <c r="E7">
-        <f ca="1">(RAND()*E5)+E6+1</f>
-        <v>4.3001722438957817</v>
-      </c>
-      <c r="F7">
-        <f ca="1">(RAND()*F5)+F6+1</f>
-        <v>5.3147681150959585</v>
-      </c>
-      <c r="G7">
-        <f ca="1">(RAND()*G5)+G6+1</f>
-        <v>5.7909169919429822</v>
-      </c>
-      <c r="H7">
-        <f ca="1">(RAND()*H5)+H6+1</f>
-        <v>7.5865408750770564</v>
-      </c>
-      <c r="I7">
-        <f ca="1">(RAND()*I5)+I6+1</f>
-        <v>6.7167693899768537</v>
-      </c>
-      <c r="J7">
-        <f ca="1">(RAND()*J5)+J6+1</f>
-        <v>3.9135304075856432</v>
-      </c>
-      <c r="K7">
-        <f ca="1">(RAND()*K5)+K6+1</f>
-        <v>1.1754748111851576</v>
-      </c>
-      <c r="L7">
-        <f ca="1">(RAND()*L5)+L6+1</f>
-        <v>16.516989561121818</v>
+      <c r="C10">
+        <f t="shared" ref="C10" ca="1" si="2">(RAND()*C8)+C9+1</f>
+        <v>5.0233058358976956</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10" ca="1" si="3">(RAND()*D8)+D9+1</f>
+        <v>9.0281271602694915</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10" ca="1" si="4">(RAND()*E8)+E9+1</f>
+        <v>4.3138592539875571</v>
+      </c>
+      <c r="F10">
+        <f ca="1">(RAND()*F8)+F9+1</f>
+        <v>6.7083359104867428</v>
+      </c>
+      <c r="G10">
+        <f ca="1">(RAND()*G8)+G9+1</f>
+        <v>4.1070743215305026</v>
+      </c>
+      <c r="H10">
+        <f ca="1">(RAND()*H8)+H9+1</f>
+        <v>1.3256323335370699</v>
+      </c>
+      <c r="I10">
+        <f ca="1">(RAND()*I8)+I9+1</f>
+        <v>10.493625199994437</v>
+      </c>
+      <c r="J10">
+        <f ca="1">(RAND()*J8)+J9+1</f>
+        <v>5.3189522862899246</v>
+      </c>
+      <c r="K10">
+        <f ca="1">(RAND()*K8)+K9+1</f>
+        <v>6.0871061144553344</v>
+      </c>
+      <c r="L10">
+        <f ca="1">(RAND()*L8)+L9+1</f>
+        <v>2.1638655791471049</v>
+      </c>
+      <c r="M10">
+        <f ca="1">(RAND()*M8)+M9+1</f>
+        <v>4.4790977244357553</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="D8">
-        <f ca="1">INT(D7*D2)+D4</f>
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <f ca="1">INT(E7*E2)+E4</f>
+      <c r="C11">
+        <f ca="1">IF(OR(C9 &lt; 0,C5 &lt; 1),-1,INT(C10*C5)+C7)</f>
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:M11" si="5">IF(OR(D9 &lt; 0,D5 &lt; 1),-1,INT(D10*D5)+D7)</f>
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ca="1" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ca="1" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F8">
-        <f ca="1">INT(F7*F2)+F4</f>
-        <v>112</v>
-      </c>
-      <c r="G8">
-        <f ca="1">INT(G7*G2)+G4</f>
-        <v>63</v>
-      </c>
-      <c r="H8">
-        <f ca="1">INT(H7*H2)+H4</f>
-        <v>81</v>
-      </c>
-      <c r="I8">
-        <f ca="1">INT(I7*I2)+I4</f>
-        <v>67</v>
-      </c>
-      <c r="J8">
-        <f ca="1">INT(J7*J2)+J4</f>
-        <v>59</v>
-      </c>
-      <c r="K8">
-        <f ca="1">INT(K7*K2)+K4</f>
+      <c r="C12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L8">
-        <f ca="1">INT(L7*L2)+L4</f>
-        <v>171</v>
+      <c r="J12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:M4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
